--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,327 +32,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -443,13 +449,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -485,15 +495,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,62 +538,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -591,21 +601,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -620,35 +638,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -665,7 +683,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -682,7 +700,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -699,7 +717,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -716,7 +734,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -733,7 +751,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -751,7 +769,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -766,32 +784,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -805,7 +823,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -819,7 +837,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -833,7 +851,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -847,7 +865,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -861,7 +879,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -875,7 +893,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -889,7 +907,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -903,7 +921,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -917,7 +935,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -931,7 +949,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -945,7 +963,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -959,7 +977,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -974,7 +992,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -989,32 +1007,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1028,7 +1046,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1042,7 +1060,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1056,7 +1074,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1070,7 +1088,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1084,7 +1102,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1098,7 +1116,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1112,7 +1130,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1126,7 +1144,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1140,7 +1158,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1154,7 +1172,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1168,7 +1186,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1182,7 +1200,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1196,7 +1214,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1210,7 +1228,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1224,7 +1242,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1238,7 +1256,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1252,7 +1270,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1266,7 +1284,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1280,7 +1298,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1295,7 +1313,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1310,74 +1328,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1388,19 +1406,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1411,22 +1429,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1437,16 +1455,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1457,19 +1475,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1480,22 +1498,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1506,10 +1524,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1520,10 +1538,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1534,10 +1552,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1548,10 +1566,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1562,10 +1580,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1576,10 +1594,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1590,10 +1608,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1605,7 +1623,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1620,83 +1638,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1761,7 +1779,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1826,7 +1844,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1891,7 +1909,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1956,7 +1974,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2021,7 +2039,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2086,7 +2104,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2151,7 +2169,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2216,7 +2234,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2281,7 +2299,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2346,7 +2364,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2411,7 +2429,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2476,7 +2494,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2542,7 +2560,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2557,41 +2575,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2608,10 +2626,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2628,10 +2646,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2648,10 +2666,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2668,10 +2686,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2688,10 +2706,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2708,10 +2726,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2728,10 +2746,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2748,10 +2766,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2768,10 +2786,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2788,10 +2806,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2808,10 +2826,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2828,10 +2846,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2848,10 +2866,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2868,10 +2886,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2888,10 +2906,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2908,10 +2926,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2928,10 +2946,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2948,10 +2966,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2968,10 +2986,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2989,7 +3007,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3004,35 +3022,35 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A5:B5 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -3040,10 +3058,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3051,10 +3069,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3062,10 +3080,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -3073,10 +3091,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3084,10 +3102,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3095,10 +3113,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -3106,10 +3124,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3117,10 +3135,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3128,10 +3146,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3139,10 +3157,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3150,10 +3168,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -3161,10 +3179,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3173,7 +3191,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3188,89 +3206,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3285,124 +3303,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3417,124 +3435,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3549,29 +3567,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3582,7 +3600,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3593,7 +3611,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3604,7 +3622,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3615,7 +3633,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3626,7 +3644,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3637,7 +3655,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3648,7 +3666,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3659,7 +3677,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3670,7 +3688,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3681,7 +3699,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3692,7 +3710,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3703,7 +3721,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3715,7 +3733,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3730,29 +3748,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3763,7 +3781,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3774,7 +3792,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3785,7 +3803,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3796,7 +3814,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3807,7 +3825,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3818,7 +3836,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3829,7 +3847,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3840,7 +3858,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3851,7 +3869,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3862,7 +3880,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3873,7 +3891,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3884,7 +3902,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3895,7 +3913,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3906,7 +3924,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3917,7 +3935,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3928,7 +3946,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3939,7 +3957,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3950,7 +3968,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3961,7 +3979,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3973,7 +3991,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,19 +196,10 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -495,15 +477,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,24 +497,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -590,6 +573,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -599,27 +585,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -639,7 +607,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,24 +617,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -683,7 +651,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -700,7 +668,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -717,7 +685,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -734,7 +702,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -751,7 +719,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -785,7 +753,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,21 +763,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -823,7 +791,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -837,7 +805,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -851,7 +819,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -865,7 +833,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -879,7 +847,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -893,7 +861,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -907,7 +875,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -921,7 +889,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -935,7 +903,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -949,7 +917,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -963,7 +931,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +945,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1008,7 +976,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,21 +986,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1046,7 +1014,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1060,7 +1028,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1074,7 +1042,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1088,7 +1056,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1102,7 +1070,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1116,7 +1084,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1130,7 +1098,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1144,7 +1112,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1158,7 +1126,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1172,7 +1140,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1186,7 +1154,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1200,7 +1168,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1214,7 +1182,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1228,7 +1196,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1242,7 +1210,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1256,7 +1224,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1270,7 +1238,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1284,7 +1252,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1298,7 +1266,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1329,7 +1297,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1338,64 +1306,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1406,19 +1374,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1429,22 +1397,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1455,16 +1423,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1475,19 +1443,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1498,22 +1466,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1524,10 +1492,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1538,10 +1506,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1552,10 +1520,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1566,10 +1534,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1580,10 +1548,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1594,10 +1562,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1608,10 +1576,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1639,7 +1607,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1649,72 +1617,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1779,7 +1747,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1844,7 +1812,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1909,7 +1877,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1974,7 +1942,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2039,7 +2007,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2104,7 +2072,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2169,7 +2137,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2234,7 +2202,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2299,7 +2267,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2364,7 +2332,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2429,7 +2397,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2494,7 +2462,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2573,434 +2541,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,172 +2863,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A5:B5 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B3 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3009,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3217,72 +3019,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3106,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3314,107 +3116,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3238,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3446,107 +3248,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3370,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3578,18 +3380,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3600,7 +3402,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3611,7 +3413,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3622,7 +3424,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3633,7 +3435,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3644,7 +3446,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3655,7 +3457,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3666,7 +3468,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3677,7 +3479,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3688,7 +3490,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3699,7 +3501,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3710,7 +3512,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3721,7 +3523,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3749,7 +3551,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3759,18 +3561,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3781,7 +3583,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3792,7 +3594,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3803,7 +3605,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3814,7 +3616,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3825,7 +3627,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3836,7 +3638,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3847,7 +3649,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3858,7 +3660,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3869,7 +3671,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3880,7 +3682,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3891,7 +3693,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3902,7 +3704,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3913,7 +3715,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3924,7 +3726,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3935,7 +3737,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3946,7 +3748,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3957,7 +3759,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3968,7 +3770,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3979,7 +3781,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,7 +607,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -753,7 +753,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -976,7 +976,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2544,7 +2544,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B3 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3009,7 +3009,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3106,7 +3106,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3238,7 +3238,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3370,7 +3370,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3551,7 +3551,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -444,12 +441,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -479,7 +476,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -617,19 +614,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,16 +760,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,16 +983,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,40 +1310,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,13 +1351,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1377,16 +1374,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1400,16 +1397,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1426,13 +1423,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1446,16 +1443,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1469,16 +1466,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1495,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1509,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1523,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1537,7 +1534,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1551,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1565,7 +1562,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1579,7 +1576,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2541,16 +2538,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,21 +2560,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2585,13 +2576,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2599,13 +2587,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2613,13 +2598,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2627,111 +2609,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2739,13 +2697,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2753,13 +2708,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2767,13 +2719,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2781,13 +2730,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2795,13 +2741,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2809,13 +2752,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2823,13 +2763,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2837,13 +2774,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2880,17 +2814,17 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2898,7 +2832,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2906,7 +2840,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2914,7 +2848,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2922,7 +2856,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2930,7 +2864,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2938,7 +2872,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2946,7 +2880,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2954,7 +2888,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2962,7 +2896,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2970,7 +2904,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2978,7 +2912,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2986,7 +2920,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3116,7 +3050,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,7 +3182,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,13 +3314,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,13 +3495,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -601,152 +600,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -965,7 +818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1286,7 +1139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2540,7 +2393,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2940,9 +2793,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2953,72 +2806,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3169,138 +3057,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3477,7 +3233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3733,4 +3489,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -427,7 +436,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,6 +447,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -475,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,64 +538,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -603,7 +630,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,21 +640,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -641,7 +668,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -655,7 +682,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -669,7 +696,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -683,7 +710,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -697,7 +724,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -711,7 +738,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -725,7 +752,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -739,7 +766,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -753,7 +780,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -767,7 +794,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -781,7 +808,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -795,7 +822,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -826,7 +853,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -836,21 +863,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -864,7 +891,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +905,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +919,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +933,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -920,7 +947,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -934,7 +961,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -948,7 +975,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -962,7 +989,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -976,7 +1003,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -990,7 +1017,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1004,7 +1031,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1018,7 +1045,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1032,7 +1059,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1046,7 +1073,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1060,7 +1087,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1074,7 +1101,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1088,7 +1115,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1102,7 +1129,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1116,7 +1143,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1147,7 +1174,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,57 +1190,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1224,19 +1251,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1247,22 +1274,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1273,16 +1300,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1293,19 +1320,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1316,22 +1343,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1342,10 +1369,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1356,10 +1383,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1370,10 +1397,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1384,10 +1411,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1398,10 +1425,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1412,10 +1439,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1426,10 +1453,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1457,7 +1484,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,72 +1494,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1597,7 +1624,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1662,7 +1689,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1727,7 +1754,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1792,7 +1819,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1857,7 +1884,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1922,7 +1949,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1987,7 +2014,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2052,7 +2079,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2117,7 +2144,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2182,7 +2209,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2247,7 +2274,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2312,7 +2339,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2394,7 +2421,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2405,21 +2432,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2427,10 +2454,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2438,10 +2465,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2449,10 +2476,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2460,10 +2487,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2471,10 +2498,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2482,10 +2509,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2493,10 +2520,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2504,10 +2531,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2515,10 +2542,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2526,10 +2553,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2537,10 +2564,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2548,10 +2575,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2559,10 +2586,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2570,10 +2597,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2581,10 +2608,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2592,10 +2619,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2603,10 +2630,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2614,10 +2641,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2625,10 +2652,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2653,7 +2680,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A6:B7 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2664,117 +2691,117 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2795,8 +2822,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2806,107 +2833,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +2955,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2938,107 +2965,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +3087,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3070,18 +3097,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3092,7 +3119,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3103,7 +3130,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3114,7 +3141,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3125,7 +3152,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3136,7 +3163,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3147,7 +3174,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3158,7 +3185,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3169,7 +3196,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3180,7 +3207,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3191,7 +3218,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3202,7 +3229,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3213,7 +3240,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3241,7 +3268,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3251,18 +3278,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3273,7 +3300,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3284,7 +3311,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3295,7 +3322,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3306,7 +3333,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3317,7 +3344,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3328,7 +3355,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3339,7 +3366,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3350,7 +3377,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3361,7 +3388,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3372,7 +3399,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3383,7 +3410,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3394,7 +3421,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3405,7 +3432,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3416,7 +3443,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3427,7 +3454,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3438,7 +3465,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3449,7 +3476,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3460,7 +3487,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3471,7 +3498,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3499,7 +3526,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3509,24 +3536,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3543,7 +3570,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3560,7 +3587,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3577,7 +3604,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3594,7 +3621,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3611,7 +3638,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
